--- a/docs/sped/validation reports/Waukegan/Enrich-ETL-Data-Validation-Report-Waukegan-Iteration-6.xlsx
+++ b/docs/sped/validation reports/Waukegan/Enrich-ETL-Data-Validation-Report-Waukegan-Iteration-6.xlsx
@@ -1002,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1159,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1">
@@ -3910,6 +3910,123 @@
     </row>
   </sheetData>
   <mergeCells count="141">
+    <mergeCell ref="B36:E37"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:E42"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:E31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:E33"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:E25"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:E80"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:E72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:E35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:E82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:E84"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:E78"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="B168:E169"/>
+    <mergeCell ref="B163:E163"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="B170:E171"/>
+    <mergeCell ref="B162:E162"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="B164:E165"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:E167"/>
+    <mergeCell ref="A246:A247"/>
+    <mergeCell ref="B246:E247"/>
+    <mergeCell ref="B233:E233"/>
+    <mergeCell ref="B234:E234"/>
+    <mergeCell ref="B254:E254"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="A152:E152"/>
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="B154:E154"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="B155:E155"/>
+    <mergeCell ref="B156:E156"/>
+    <mergeCell ref="A157:A159"/>
+    <mergeCell ref="B157:E159"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:E160"/>
+    <mergeCell ref="B161:E161"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="A248:A249"/>
+    <mergeCell ref="B248:E249"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="B231:E231"/>
+    <mergeCell ref="A233:A234"/>
+    <mergeCell ref="A235:A237"/>
+    <mergeCell ref="A196:A198"/>
+    <mergeCell ref="B196:E198"/>
+    <mergeCell ref="B238:E238"/>
+    <mergeCell ref="B239:E239"/>
+    <mergeCell ref="A240:A241"/>
+    <mergeCell ref="B240:E240"/>
+    <mergeCell ref="A242:A243"/>
+    <mergeCell ref="B242:E242"/>
+    <mergeCell ref="A244:A245"/>
+    <mergeCell ref="B244:E245"/>
+    <mergeCell ref="B235:E237"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="B115:E115"/>
+    <mergeCell ref="B116:E116"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="B117:E119"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="B199:E199"/>
+    <mergeCell ref="B200:E200"/>
+    <mergeCell ref="B216:F216"/>
+    <mergeCell ref="B232:E232"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="B207:E208"/>
+    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="B201:E201"/>
+    <mergeCell ref="A203:A204"/>
+    <mergeCell ref="B203:E204"/>
+    <mergeCell ref="A205:A206"/>
+    <mergeCell ref="B205:E206"/>
+    <mergeCell ref="B177:F177"/>
+    <mergeCell ref="A191:E191"/>
+    <mergeCell ref="B192:E192"/>
+    <mergeCell ref="B193:E193"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="B194:E194"/>
+    <mergeCell ref="B195:E195"/>
     <mergeCell ref="A128:A129"/>
     <mergeCell ref="B128:E129"/>
     <mergeCell ref="A130:A131"/>
@@ -3934,123 +4051,6 @@
     <mergeCell ref="B113:E113"/>
     <mergeCell ref="B114:E114"/>
     <mergeCell ref="A115:A116"/>
-    <mergeCell ref="B115:E115"/>
-    <mergeCell ref="B116:E116"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="B117:E119"/>
-    <mergeCell ref="A199:A200"/>
-    <mergeCell ref="B199:E199"/>
-    <mergeCell ref="B200:E200"/>
-    <mergeCell ref="B216:F216"/>
-    <mergeCell ref="B232:E232"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="B207:E208"/>
-    <mergeCell ref="A201:A202"/>
-    <mergeCell ref="B201:E201"/>
-    <mergeCell ref="A203:A204"/>
-    <mergeCell ref="B203:E204"/>
-    <mergeCell ref="A205:A206"/>
-    <mergeCell ref="B205:E206"/>
-    <mergeCell ref="B177:F177"/>
-    <mergeCell ref="A191:E191"/>
-    <mergeCell ref="B192:E192"/>
-    <mergeCell ref="B193:E193"/>
-    <mergeCell ref="A194:A195"/>
-    <mergeCell ref="B194:E194"/>
-    <mergeCell ref="B195:E195"/>
-    <mergeCell ref="A196:A198"/>
-    <mergeCell ref="B196:E198"/>
-    <mergeCell ref="B238:E238"/>
-    <mergeCell ref="B239:E239"/>
-    <mergeCell ref="A240:A241"/>
-    <mergeCell ref="B240:E240"/>
-    <mergeCell ref="A242:A243"/>
-    <mergeCell ref="B242:E242"/>
-    <mergeCell ref="A244:A245"/>
-    <mergeCell ref="B244:E245"/>
-    <mergeCell ref="B235:E237"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="A246:A247"/>
-    <mergeCell ref="B246:E247"/>
-    <mergeCell ref="B233:E233"/>
-    <mergeCell ref="B234:E234"/>
-    <mergeCell ref="B254:E254"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="A152:E152"/>
-    <mergeCell ref="B153:E153"/>
-    <mergeCell ref="B154:E154"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="B155:E155"/>
-    <mergeCell ref="B156:E156"/>
-    <mergeCell ref="A157:A159"/>
-    <mergeCell ref="B157:E159"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="B160:E160"/>
-    <mergeCell ref="B161:E161"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="A248:A249"/>
-    <mergeCell ref="B248:E249"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="B231:E231"/>
-    <mergeCell ref="A233:A234"/>
-    <mergeCell ref="A235:A237"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="B168:E169"/>
-    <mergeCell ref="B163:E163"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="B170:E171"/>
-    <mergeCell ref="B162:E162"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="B164:E165"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:E167"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:E82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:E84"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:E78"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:E25"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:E80"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B70:E72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:E35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:E37"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:E42"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:E31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:E33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
